--- a/AoC2022_Day3.xlsx
+++ b/AoC2022_Day3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1735959cbf115bc/Documents/AoC 2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="11_F25DC773A252ABDACC1048CC0198568A5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D800CFBD-58CF-49BF-86E0-4C3E6635A13B}"/>
+  <xr:revisionPtr revIDLastSave="454" documentId="11_F25DC773A252ABDACC1048CC0198568A5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0D1EFB1-D11C-41BD-84FA-0F88A09E0B16}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="4470" windowWidth="46560" windowHeight="25455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8370" yWindow="4815" windowWidth="48825" windowHeight="25455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1057,6 +1057,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1322,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D300"/>
+  <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,1916 +1337,1516 @@
     <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" cm="1">
-        <f t="array" ref="B1">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A1,_xlfn.SEQUENCE(1,LEN(A1),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A2,_xlfn.SEQUENCE(1,LEN(A2),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A3,_xlfn.SEQUENCE(1,LEN(A3),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" cm="1">
-        <f t="array" ref="C1">_xlfn.LET(_xlpm.step1,_xlfn.MAP(A1:A300,_xlfn.LAMBDA(_xlpm.array,CODE(MID(RIGHT(_xlpm.array,LEN(_xlpm.array)/2),MAX(IFERROR(FIND(MID(LEFT(_xlpm.array,LEN(_xlpm.array)/2),_xlfn.SEQUENCE(1,LEN(_xlpm.array)/2),1),RIGHT(_xlpm.array,LEN(_xlpm.array)/2)),0)),1)))),SUM(IF(_xlpm.step1&gt;96,_xlpm.step1-96,_xlpm.step1-38)))</f>
+      <c r="B1" s="1" cm="1">
+        <f t="array" ref="B1">_xlfn.LET(_xlpm.step1,_xlfn.MAP(A1:A300,_xlfn.LAMBDA(_xlpm.array,CODE(MID(RIGHT(_xlpm.array,LEN(_xlpm.array)/2),MAX(IFERROR(FIND(MID(LEFT(_xlpm.array,LEN(_xlpm.array)/2),_xlfn.SEQUENCE(1,LEN(_xlpm.array)/2),1),RIGHT(_xlpm.array,LEN(_xlpm.array)/2)),0)),1)))),SUM(IF(_xlpm.step1&gt;96,_xlpm.step1-96,_xlpm.step1-38)))</f>
         <v>8109</v>
       </c>
-      <c r="D1" s="3">
-        <f>SUM(B:B)</f>
+      <c r="C1" s="3" cm="1">
+        <f t="array" aca="1" ref="C1" ca="1">_xlfn.LET(_xlpm.seq,100,_xlpm.d,_xlfn.MAP(_xlfn.SEQUENCE(_xlpm.seq,1,0,3),_xlfn.LAMBDA(_xlpm.array,OFFSET(A1,_xlpm.array,0))),_xlpm.e,_xlfn.MAP(_xlfn.SEQUENCE(_xlpm.seq,1,0,3),_xlfn.LAMBDA(_xlpm.array,OFFSET(A2,_xlpm.array,0))),_xlpm.f,_xlfn.MAP(_xlfn.SEQUENCE(_xlpm.seq,1,0,3),_xlfn.LAMBDA(_xlpm.array,OFFSET(A3,_xlpm.array,0))),_xlpm.b,_xlfn.MAP(_xlpm.d,_xlpm.e,_xlpm.f,_xlfn.LAMBDA(_xlpm.x,_xlpm.y,_xlpm.z,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(_xlpm.x,_xlfn.SEQUENCE(1,LEN(_xlpm.x),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(_xlpm.y,_xlfn.SEQUENCE(1,LEN(_xlpm.y),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(_xlpm.z,_xlfn.SEQUENCE(1,LEN(_xlpm.z),1),1),1,-1,TRUE)),TRUE))),0)))),_xlpm.c,_xlfn.MAP(_xlpm.b,_xlfn.LAMBDA(_xlpm.perrow,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.perrow,_xlfn.SEQUENCE(1,LEN(_xlpm.perrow),1),1)),1,-1,TRUE))))),_xlpm.g,_xlfn.MAP(_xlpm.c,_xlfn.LAMBDA(_xlpm.c,CODE(MID(_xlpm.c,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.c),0)),1)))),_xlpm.h,IF(_xlpm.g&gt;96,_xlpm.g-96,_xlpm.g-38),SUM(_xlpm.h))</f>
         <v>2738</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>306</v>
+      </c>
       <c r="C2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" cm="1">
-        <f t="array" ref="B4">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A4,_xlfn.SEQUENCE(1,LEN(A4),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A5,_xlfn.SEQUENCE(1,LEN(A5),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A6,_xlfn.SEQUENCE(1,LEN(A6),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" cm="1">
-        <f t="array" ref="B7">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A7,_xlfn.SEQUENCE(1,LEN(A7),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A8,_xlfn.SEQUENCE(1,LEN(A8),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A9,_xlfn.SEQUENCE(1,LEN(A9),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" cm="1">
-        <f t="array" ref="B10">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A10,_xlfn.SEQUENCE(1,LEN(A10),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A11,_xlfn.SEQUENCE(1,LEN(A11),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A12,_xlfn.SEQUENCE(1,LEN(A12),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" cm="1">
-        <f t="array" ref="B13">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A13,_xlfn.SEQUENCE(1,LEN(A13),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A14,_xlfn.SEQUENCE(1,LEN(A14),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A15,_xlfn.SEQUENCE(1,LEN(A15),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" cm="1">
-        <f t="array" ref="B16">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A16,_xlfn.SEQUENCE(1,LEN(A16),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A17,_xlfn.SEQUENCE(1,LEN(A17),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A18,_xlfn.SEQUENCE(1,LEN(A18),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" cm="1">
-        <f t="array" ref="B19">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A19,_xlfn.SEQUENCE(1,LEN(A19),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A20,_xlfn.SEQUENCE(1,LEN(A20),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A21,_xlfn.SEQUENCE(1,LEN(A21),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" cm="1">
-        <f t="array" ref="B22">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A22,_xlfn.SEQUENCE(1,LEN(A22),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A23,_xlfn.SEQUENCE(1,LEN(A23),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A24,_xlfn.SEQUENCE(1,LEN(A24),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" cm="1">
-        <f t="array" ref="B25">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A25,_xlfn.SEQUENCE(1,LEN(A25),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A26,_xlfn.SEQUENCE(1,LEN(A26),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A27,_xlfn.SEQUENCE(1,LEN(A27),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" cm="1">
-        <f t="array" ref="B28">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A28,_xlfn.SEQUENCE(1,LEN(A28),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A29,_xlfn.SEQUENCE(1,LEN(A29),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A30,_xlfn.SEQUENCE(1,LEN(A30),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" cm="1">
-        <f t="array" ref="B31">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A31,_xlfn.SEQUENCE(1,LEN(A31),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A32,_xlfn.SEQUENCE(1,LEN(A32),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A33,_xlfn.SEQUENCE(1,LEN(A33),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" cm="1">
-        <f t="array" ref="B34">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A34,_xlfn.SEQUENCE(1,LEN(A34),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A35,_xlfn.SEQUENCE(1,LEN(A35),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A36,_xlfn.SEQUENCE(1,LEN(A36),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" cm="1">
-        <f t="array" ref="B37">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A37,_xlfn.SEQUENCE(1,LEN(A37),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A38,_xlfn.SEQUENCE(1,LEN(A38),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A39,_xlfn.SEQUENCE(1,LEN(A39),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" cm="1">
-        <f t="array" ref="B40">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A40,_xlfn.SEQUENCE(1,LEN(A40),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A41,_xlfn.SEQUENCE(1,LEN(A41),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A42,_xlfn.SEQUENCE(1,LEN(A42),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" cm="1">
-        <f t="array" ref="B43">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A43,_xlfn.SEQUENCE(1,LEN(A43),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A44,_xlfn.SEQUENCE(1,LEN(A44),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A45,_xlfn.SEQUENCE(1,LEN(A45),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" cm="1">
-        <f t="array" ref="B46">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A46,_xlfn.SEQUENCE(1,LEN(A46),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A47,_xlfn.SEQUENCE(1,LEN(A47),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A48,_xlfn.SEQUENCE(1,LEN(A48),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" cm="1">
-        <f t="array" ref="B49">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A49,_xlfn.SEQUENCE(1,LEN(A49),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A50,_xlfn.SEQUENCE(1,LEN(A50),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A51,_xlfn.SEQUENCE(1,LEN(A51),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" cm="1">
-        <f t="array" ref="B52">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A52,_xlfn.SEQUENCE(1,LEN(A52),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A53,_xlfn.SEQUENCE(1,LEN(A53),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A54,_xlfn.SEQUENCE(1,LEN(A54),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" cm="1">
-        <f t="array" ref="B55">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A55,_xlfn.SEQUENCE(1,LEN(A55),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A56,_xlfn.SEQUENCE(1,LEN(A56),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A57,_xlfn.SEQUENCE(1,LEN(A57),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" cm="1">
-        <f t="array" ref="B58">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A58,_xlfn.SEQUENCE(1,LEN(A58),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A59,_xlfn.SEQUENCE(1,LEN(A59),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A60,_xlfn.SEQUENCE(1,LEN(A60),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" cm="1">
-        <f t="array" ref="B61">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A61,_xlfn.SEQUENCE(1,LEN(A61),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A62,_xlfn.SEQUENCE(1,LEN(A62),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A63,_xlfn.SEQUENCE(1,LEN(A63),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" cm="1">
-        <f t="array" ref="B64">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A64,_xlfn.SEQUENCE(1,LEN(A64),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A65,_xlfn.SEQUENCE(1,LEN(A65),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A66,_xlfn.SEQUENCE(1,LEN(A66),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" cm="1">
-        <f t="array" ref="B67">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A67,_xlfn.SEQUENCE(1,LEN(A67),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A68,_xlfn.SEQUENCE(1,LEN(A68),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A69,_xlfn.SEQUENCE(1,LEN(A69),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" cm="1">
-        <f t="array" ref="B70">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A70,_xlfn.SEQUENCE(1,LEN(A70),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A71,_xlfn.SEQUENCE(1,LEN(A71),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A72,_xlfn.SEQUENCE(1,LEN(A72),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" cm="1">
-        <f t="array" ref="B73">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A73,_xlfn.SEQUENCE(1,LEN(A73),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A74,_xlfn.SEQUENCE(1,LEN(A74),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A75,_xlfn.SEQUENCE(1,LEN(A75),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" cm="1">
-        <f t="array" ref="B76">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A76,_xlfn.SEQUENCE(1,LEN(A76),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A77,_xlfn.SEQUENCE(1,LEN(A77),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A78,_xlfn.SEQUENCE(1,LEN(A78),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" cm="1">
-        <f t="array" ref="B79">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A79,_xlfn.SEQUENCE(1,LEN(A79),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A80,_xlfn.SEQUENCE(1,LEN(A80),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A81,_xlfn.SEQUENCE(1,LEN(A81),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" cm="1">
-        <f t="array" ref="B82">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A82,_xlfn.SEQUENCE(1,LEN(A82),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A83,_xlfn.SEQUENCE(1,LEN(A83),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A84,_xlfn.SEQUENCE(1,LEN(A84),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B85" cm="1">
-        <f t="array" ref="B85">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A85,_xlfn.SEQUENCE(1,LEN(A85),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A86,_xlfn.SEQUENCE(1,LEN(A86),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A87,_xlfn.SEQUENCE(1,LEN(A87),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B88" cm="1">
-        <f t="array" ref="B88">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A88,_xlfn.SEQUENCE(1,LEN(A88),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A89,_xlfn.SEQUENCE(1,LEN(A89),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A90,_xlfn.SEQUENCE(1,LEN(A90),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="B91" cm="1">
-        <f t="array" ref="B91">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A91,_xlfn.SEQUENCE(1,LEN(A91),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A92,_xlfn.SEQUENCE(1,LEN(A92),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A93,_xlfn.SEQUENCE(1,LEN(A93),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="B94" cm="1">
-        <f t="array" ref="B94">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A94,_xlfn.SEQUENCE(1,LEN(A94),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A95,_xlfn.SEQUENCE(1,LEN(A95),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A96,_xlfn.SEQUENCE(1,LEN(A96),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="B97" cm="1">
-        <f t="array" ref="B97">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A97,_xlfn.SEQUENCE(1,LEN(A97),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A98,_xlfn.SEQUENCE(1,LEN(A98),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A99,_xlfn.SEQUENCE(1,LEN(A99),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="B100" cm="1">
-        <f t="array" ref="B100">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A100,_xlfn.SEQUENCE(1,LEN(A100),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A101,_xlfn.SEQUENCE(1,LEN(A101),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A102,_xlfn.SEQUENCE(1,LEN(A102),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="B103" cm="1">
-        <f t="array" ref="B103">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A103,_xlfn.SEQUENCE(1,LEN(A103),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A104,_xlfn.SEQUENCE(1,LEN(A104),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A105,_xlfn.SEQUENCE(1,LEN(A105),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="B106" cm="1">
-        <f t="array" ref="B106">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A106,_xlfn.SEQUENCE(1,LEN(A106),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A107,_xlfn.SEQUENCE(1,LEN(A107),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A108,_xlfn.SEQUENCE(1,LEN(A108),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="B109" cm="1">
-        <f t="array" ref="B109">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A109,_xlfn.SEQUENCE(1,LEN(A109),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A110,_xlfn.SEQUENCE(1,LEN(A110),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A111,_xlfn.SEQUENCE(1,LEN(A111),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-      <c r="B112" cm="1">
-        <f t="array" ref="B112">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A112,_xlfn.SEQUENCE(1,LEN(A112),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A113,_xlfn.SEQUENCE(1,LEN(A113),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A114,_xlfn.SEQUENCE(1,LEN(A114),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-      <c r="B115" cm="1">
-        <f t="array" ref="B115">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A115,_xlfn.SEQUENCE(1,LEN(A115),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A116,_xlfn.SEQUENCE(1,LEN(A116),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A117,_xlfn.SEQUENCE(1,LEN(A117),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-      <c r="B118" cm="1">
-        <f t="array" ref="B118">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A118,_xlfn.SEQUENCE(1,LEN(A118),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A119,_xlfn.SEQUENCE(1,LEN(A119),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A120,_xlfn.SEQUENCE(1,LEN(A120),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-      <c r="B121" cm="1">
-        <f t="array" ref="B121">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A121,_xlfn.SEQUENCE(1,LEN(A121),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A122,_xlfn.SEQUENCE(1,LEN(A122),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A123,_xlfn.SEQUENCE(1,LEN(A123),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="B124" cm="1">
-        <f t="array" ref="B124">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A124,_xlfn.SEQUENCE(1,LEN(A124),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A125,_xlfn.SEQUENCE(1,LEN(A125),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A126,_xlfn.SEQUENCE(1,LEN(A126),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-      <c r="B127" cm="1">
-        <f t="array" ref="B127">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A127,_xlfn.SEQUENCE(1,LEN(A127),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A128,_xlfn.SEQUENCE(1,LEN(A128),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A129,_xlfn.SEQUENCE(1,LEN(A129),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="B130" cm="1">
-        <f t="array" ref="B130">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A130,_xlfn.SEQUENCE(1,LEN(A130),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A131,_xlfn.SEQUENCE(1,LEN(A131),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A132,_xlfn.SEQUENCE(1,LEN(A132),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-      <c r="B133" cm="1">
-        <f t="array" ref="B133">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A133,_xlfn.SEQUENCE(1,LEN(A133),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A134,_xlfn.SEQUENCE(1,LEN(A134),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A135,_xlfn.SEQUENCE(1,LEN(A135),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-      <c r="B136" cm="1">
-        <f t="array" ref="B136">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A136,_xlfn.SEQUENCE(1,LEN(A136),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A137,_xlfn.SEQUENCE(1,LEN(A137),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A138,_xlfn.SEQUENCE(1,LEN(A138),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-      <c r="B139" cm="1">
-        <f t="array" ref="B139">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A139,_xlfn.SEQUENCE(1,LEN(A139),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A140,_xlfn.SEQUENCE(1,LEN(A140),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A141,_xlfn.SEQUENCE(1,LEN(A141),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-      <c r="B142" cm="1">
-        <f t="array" ref="B142">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A142,_xlfn.SEQUENCE(1,LEN(A142),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A143,_xlfn.SEQUENCE(1,LEN(A143),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A144,_xlfn.SEQUENCE(1,LEN(A144),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-      <c r="B145" cm="1">
-        <f t="array" ref="B145">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A145,_xlfn.SEQUENCE(1,LEN(A145),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A146,_xlfn.SEQUENCE(1,LEN(A146),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A147,_xlfn.SEQUENCE(1,LEN(A147),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-      <c r="B148" cm="1">
-        <f t="array" ref="B148">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A148,_xlfn.SEQUENCE(1,LEN(A148),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A149,_xlfn.SEQUENCE(1,LEN(A149),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A150,_xlfn.SEQUENCE(1,LEN(A150),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-      <c r="B151" cm="1">
-        <f t="array" ref="B151">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A151,_xlfn.SEQUENCE(1,LEN(A151),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A152,_xlfn.SEQUENCE(1,LEN(A152),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A153,_xlfn.SEQUENCE(1,LEN(A153),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-      <c r="B154" cm="1">
-        <f t="array" ref="B154">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A154,_xlfn.SEQUENCE(1,LEN(A154),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A155,_xlfn.SEQUENCE(1,LEN(A155),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A156,_xlfn.SEQUENCE(1,LEN(A156),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-      <c r="B157" cm="1">
-        <f t="array" ref="B157">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A157,_xlfn.SEQUENCE(1,LEN(A157),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A158,_xlfn.SEQUENCE(1,LEN(A158),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A159,_xlfn.SEQUENCE(1,LEN(A159),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-      <c r="B160" cm="1">
-        <f t="array" ref="B160">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A160,_xlfn.SEQUENCE(1,LEN(A160),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A161,_xlfn.SEQUENCE(1,LEN(A161),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A162,_xlfn.SEQUENCE(1,LEN(A162),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-      <c r="B163" cm="1">
-        <f t="array" ref="B163">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A163,_xlfn.SEQUENCE(1,LEN(A163),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A164,_xlfn.SEQUENCE(1,LEN(A164),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A165,_xlfn.SEQUENCE(1,LEN(A165),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-      <c r="B166" cm="1">
-        <f t="array" ref="B166">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A166,_xlfn.SEQUENCE(1,LEN(A166),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A167,_xlfn.SEQUENCE(1,LEN(A167),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A168,_xlfn.SEQUENCE(1,LEN(A168),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-      <c r="B169" cm="1">
-        <f t="array" ref="B169">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A169,_xlfn.SEQUENCE(1,LEN(A169),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A170,_xlfn.SEQUENCE(1,LEN(A170),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A171,_xlfn.SEQUENCE(1,LEN(A171),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-      <c r="B172" cm="1">
-        <f t="array" ref="B172">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A172,_xlfn.SEQUENCE(1,LEN(A172),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A173,_xlfn.SEQUENCE(1,LEN(A173),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A174,_xlfn.SEQUENCE(1,LEN(A174),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-      <c r="B175" cm="1">
-        <f t="array" ref="B175">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A175,_xlfn.SEQUENCE(1,LEN(A175),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A176,_xlfn.SEQUENCE(1,LEN(A176),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A177,_xlfn.SEQUENCE(1,LEN(A177),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-      <c r="B178" cm="1">
-        <f t="array" ref="B178">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A178,_xlfn.SEQUENCE(1,LEN(A178),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A179,_xlfn.SEQUENCE(1,LEN(A179),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A180,_xlfn.SEQUENCE(1,LEN(A180),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-      <c r="B181" cm="1">
-        <f t="array" ref="B181">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A181,_xlfn.SEQUENCE(1,LEN(A181),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A182,_xlfn.SEQUENCE(1,LEN(A182),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A183,_xlfn.SEQUENCE(1,LEN(A183),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-      <c r="B184" cm="1">
-        <f t="array" ref="B184">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A184,_xlfn.SEQUENCE(1,LEN(A184),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A185,_xlfn.SEQUENCE(1,LEN(A185),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A186,_xlfn.SEQUENCE(1,LEN(A186),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-      <c r="B187" cm="1">
-        <f t="array" ref="B187">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A187,_xlfn.SEQUENCE(1,LEN(A187),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A188,_xlfn.SEQUENCE(1,LEN(A188),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A189,_xlfn.SEQUENCE(1,LEN(A189),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-      <c r="B190" cm="1">
-        <f t="array" ref="B190">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A190,_xlfn.SEQUENCE(1,LEN(A190),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A191,_xlfn.SEQUENCE(1,LEN(A191),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A192,_xlfn.SEQUENCE(1,LEN(A192),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-      <c r="B193" cm="1">
-        <f t="array" ref="B193">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A193,_xlfn.SEQUENCE(1,LEN(A193),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A194,_xlfn.SEQUENCE(1,LEN(A194),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A195,_xlfn.SEQUENCE(1,LEN(A195),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-      <c r="B196" cm="1">
-        <f t="array" ref="B196">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A196,_xlfn.SEQUENCE(1,LEN(A196),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A197,_xlfn.SEQUENCE(1,LEN(A197),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A198,_xlfn.SEQUENCE(1,LEN(A198),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-      <c r="B199" cm="1">
-        <f t="array" ref="B199">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A199,_xlfn.SEQUENCE(1,LEN(A199),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A200,_xlfn.SEQUENCE(1,LEN(A200),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A201,_xlfn.SEQUENCE(1,LEN(A201),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-      <c r="B202" cm="1">
-        <f t="array" ref="B202">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A202,_xlfn.SEQUENCE(1,LEN(A202),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A203,_xlfn.SEQUENCE(1,LEN(A203),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A204,_xlfn.SEQUENCE(1,LEN(A204),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-      <c r="B205" cm="1">
-        <f t="array" ref="B205">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A205,_xlfn.SEQUENCE(1,LEN(A205),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A206,_xlfn.SEQUENCE(1,LEN(A206),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A207,_xlfn.SEQUENCE(1,LEN(A207),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-      <c r="B208" cm="1">
-        <f t="array" ref="B208">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A208,_xlfn.SEQUENCE(1,LEN(A208),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A209,_xlfn.SEQUENCE(1,LEN(A209),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A210,_xlfn.SEQUENCE(1,LEN(A210),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-      <c r="B211" cm="1">
-        <f t="array" ref="B211">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A211,_xlfn.SEQUENCE(1,LEN(A211),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A212,_xlfn.SEQUENCE(1,LEN(A212),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A213,_xlfn.SEQUENCE(1,LEN(A213),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-      <c r="B214" cm="1">
-        <f t="array" ref="B214">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A214,_xlfn.SEQUENCE(1,LEN(A214),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A215,_xlfn.SEQUENCE(1,LEN(A215),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A216,_xlfn.SEQUENCE(1,LEN(A216),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-      <c r="B217" cm="1">
-        <f t="array" ref="B217">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A217,_xlfn.SEQUENCE(1,LEN(A217),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A218,_xlfn.SEQUENCE(1,LEN(A218),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A219,_xlfn.SEQUENCE(1,LEN(A219),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-      <c r="B220" cm="1">
-        <f t="array" ref="B220">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A220,_xlfn.SEQUENCE(1,LEN(A220),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A221,_xlfn.SEQUENCE(1,LEN(A221),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A222,_xlfn.SEQUENCE(1,LEN(A222),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-      <c r="B223" cm="1">
-        <f t="array" ref="B223">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A223,_xlfn.SEQUENCE(1,LEN(A223),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A224,_xlfn.SEQUENCE(1,LEN(A224),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A225,_xlfn.SEQUENCE(1,LEN(A225),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-      <c r="B226" cm="1">
-        <f t="array" ref="B226">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A226,_xlfn.SEQUENCE(1,LEN(A226),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A227,_xlfn.SEQUENCE(1,LEN(A227),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A228,_xlfn.SEQUENCE(1,LEN(A228),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-      <c r="B229" cm="1">
-        <f t="array" ref="B229">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A229,_xlfn.SEQUENCE(1,LEN(A229),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A230,_xlfn.SEQUENCE(1,LEN(A230),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A231,_xlfn.SEQUENCE(1,LEN(A231),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-      <c r="B232" cm="1">
-        <f t="array" ref="B232">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A232,_xlfn.SEQUENCE(1,LEN(A232),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A233,_xlfn.SEQUENCE(1,LEN(A233),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A234,_xlfn.SEQUENCE(1,LEN(A234),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-      <c r="B235" cm="1">
-        <f t="array" ref="B235">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A235,_xlfn.SEQUENCE(1,LEN(A235),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A236,_xlfn.SEQUENCE(1,LEN(A236),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A237,_xlfn.SEQUENCE(1,LEN(A237),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-      <c r="B238" cm="1">
-        <f t="array" ref="B238">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A238,_xlfn.SEQUENCE(1,LEN(A238),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A239,_xlfn.SEQUENCE(1,LEN(A239),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A240,_xlfn.SEQUENCE(1,LEN(A240),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-      <c r="B241" cm="1">
-        <f t="array" ref="B241">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A241,_xlfn.SEQUENCE(1,LEN(A241),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A242,_xlfn.SEQUENCE(1,LEN(A242),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A243,_xlfn.SEQUENCE(1,LEN(A243),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-      <c r="B244" cm="1">
-        <f t="array" ref="B244">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A244,_xlfn.SEQUENCE(1,LEN(A244),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A245,_xlfn.SEQUENCE(1,LEN(A245),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A246,_xlfn.SEQUENCE(1,LEN(A246),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-      <c r="B247" cm="1">
-        <f t="array" ref="B247">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A247,_xlfn.SEQUENCE(1,LEN(A247),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A248,_xlfn.SEQUENCE(1,LEN(A248),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A249,_xlfn.SEQUENCE(1,LEN(A249),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-      <c r="B250" cm="1">
-        <f t="array" ref="B250">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A250,_xlfn.SEQUENCE(1,LEN(A250),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A251,_xlfn.SEQUENCE(1,LEN(A251),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A252,_xlfn.SEQUENCE(1,LEN(A252),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-      <c r="B253" cm="1">
-        <f t="array" ref="B253">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A253,_xlfn.SEQUENCE(1,LEN(A253),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A254,_xlfn.SEQUENCE(1,LEN(A254),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A255,_xlfn.SEQUENCE(1,LEN(A255),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-      <c r="B256" cm="1">
-        <f t="array" ref="B256">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A256,_xlfn.SEQUENCE(1,LEN(A256),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A257,_xlfn.SEQUENCE(1,LEN(A257),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A258,_xlfn.SEQUENCE(1,LEN(A258),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-      <c r="B259" cm="1">
-        <f t="array" ref="B259">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A259,_xlfn.SEQUENCE(1,LEN(A259),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A260,_xlfn.SEQUENCE(1,LEN(A260),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A261,_xlfn.SEQUENCE(1,LEN(A261),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-      <c r="B262" cm="1">
-        <f t="array" ref="B262">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A262,_xlfn.SEQUENCE(1,LEN(A262),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A263,_xlfn.SEQUENCE(1,LEN(A263),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A264,_xlfn.SEQUENCE(1,LEN(A264),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-      <c r="B265" cm="1">
-        <f t="array" ref="B265">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A265,_xlfn.SEQUENCE(1,LEN(A265),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A266,_xlfn.SEQUENCE(1,LEN(A266),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A267,_xlfn.SEQUENCE(1,LEN(A267),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-      <c r="B268" cm="1">
-        <f t="array" ref="B268">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A268,_xlfn.SEQUENCE(1,LEN(A268),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A269,_xlfn.SEQUENCE(1,LEN(A269),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A270,_xlfn.SEQUENCE(1,LEN(A270),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-      <c r="B271" cm="1">
-        <f t="array" ref="B271">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A271,_xlfn.SEQUENCE(1,LEN(A271),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A272,_xlfn.SEQUENCE(1,LEN(A272),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A273,_xlfn.SEQUENCE(1,LEN(A273),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-      <c r="B274" cm="1">
-        <f t="array" ref="B274">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A274,_xlfn.SEQUENCE(1,LEN(A274),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A275,_xlfn.SEQUENCE(1,LEN(A275),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A276,_xlfn.SEQUENCE(1,LEN(A276),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-      <c r="B277" cm="1">
-        <f t="array" ref="B277">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A277,_xlfn.SEQUENCE(1,LEN(A277),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A278,_xlfn.SEQUENCE(1,LEN(A278),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A279,_xlfn.SEQUENCE(1,LEN(A279),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-      <c r="B280" cm="1">
-        <f t="array" ref="B280">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A280,_xlfn.SEQUENCE(1,LEN(A280),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A281,_xlfn.SEQUENCE(1,LEN(A281),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A282,_xlfn.SEQUENCE(1,LEN(A282),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-      <c r="B283" cm="1">
-        <f t="array" ref="B283">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A283,_xlfn.SEQUENCE(1,LEN(A283),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A284,_xlfn.SEQUENCE(1,LEN(A284),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A285,_xlfn.SEQUENCE(1,LEN(A285),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-      <c r="B286" cm="1">
-        <f t="array" ref="B286">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A286,_xlfn.SEQUENCE(1,LEN(A286),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A287,_xlfn.SEQUENCE(1,LEN(A287),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A288,_xlfn.SEQUENCE(1,LEN(A288),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-      <c r="B289" cm="1">
-        <f t="array" ref="B289">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A289,_xlfn.SEQUENCE(1,LEN(A289),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A290,_xlfn.SEQUENCE(1,LEN(A290),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A291,_xlfn.SEQUENCE(1,LEN(A291),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-      <c r="B292" cm="1">
-        <f t="array" ref="B292">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A292,_xlfn.SEQUENCE(1,LEN(A292),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A293,_xlfn.SEQUENCE(1,LEN(A293),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A294,_xlfn.SEQUENCE(1,LEN(A294),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-      <c r="B295" cm="1">
-        <f t="array" ref="B295">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A295,_xlfn.SEQUENCE(1,LEN(A295),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A296,_xlfn.SEQUENCE(1,LEN(A296),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A297,_xlfn.SEQUENCE(1,LEN(A297),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-      <c r="B298" cm="1">
-        <f t="array" ref="B298">_xlfn.LET(_xlpm.a,_xlfn.CONCAT(_xlfn.IFNA(_xlfn.HSTACK(CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A298,_xlfn.SEQUENCE(1,LEN(A298),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A299,_xlfn.SEQUENCE(1,LEN(A299),1),1),1,-1,TRUE)),TRUE)),CHAR(_xlfn.UNIQUE(CODE(_xlfn._xlws.SORT(MID(A300,_xlfn.SEQUENCE(1,LEN(A300),1),1),1,-1,TRUE)),TRUE))),0)),_xlpm.b,_xlfn.CONCAT(CHAR(_xlfn._xlws.SORT(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,LEN(_xlpm.a),1),1)),1,-1,TRUE))),_xlpm.c,CODE(MID(_xlpm.b,MAX(IFERROR(FIND(_xlfn.HSTACK(REPT(CHAR(_xlfn.SEQUENCE(1,26,97)),3),REPT(CHAR(_xlfn.SEQUENCE(1,26,65)),3)),_xlpm.b),0)),1)),IF(_xlpm.c&gt;96,_xlpm.c-96,_xlpm.c-38))</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -3258,7 +2862,7 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="58" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
